--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16.674413811491988</v>
+        <v>16.674413772305034</v>
       </c>
       <c r="C2">
-        <v>27.655246763693526</v>
+        <v>27.655246727319621</v>
       </c>
       <c r="D2">
-        <v>37.346183867127856</v>
+        <v>37.346183770040149</v>
       </c>
       <c r="E2">
-        <v>65.078115411794187</v>
+        <v>65.078115381936215</v>
       </c>
       <c r="F2">
-        <v>30.378254307284735</v>
+        <v>30.378254280837737</v>
       </c>
       <c r="G2">
-        <v>13.649437360822409</v>
+        <v>13.649437369458168</v>
       </c>
       <c r="H2">
-        <v>33.347008440724316</v>
+        <v>33.347008367896734</v>
       </c>
       <c r="I2">
-        <v>30.764709250405613</v>
+        <v>30.764709280323466</v>
       </c>
       <c r="J2">
-        <v>35.280304342504806</v>
+        <v>35.280304279690164</v>
       </c>
       <c r="K2">
-        <v>13.445550190676265</v>
+        <v>13.445550223517863</v>
       </c>
       <c r="L2">
-        <v>6.4245038099057892</v>
+        <v>6.4245037860321847</v>
       </c>
       <c r="N2">
-        <v>32.957760363164105</v>
+        <v>32.957760361604244</v>
       </c>
       <c r="O2">
-        <v>39.180398786043959</v>
+        <v>39.180398660125491</v>
       </c>
       <c r="P2">
-        <v>42.229118983363549</v>
+        <v>42.229118955864109</v>
       </c>
       <c r="Q2">
-        <v>4.6466953409370539</v>
+        <v>4.6466952613730061</v>
       </c>
       <c r="S2">
-        <v>54.051100224175975</v>
+        <v>54.05109979538544</v>
       </c>
       <c r="V2">
-        <v>24.142849703656264</v>
+        <v>24.142849591104572</v>
       </c>
       <c r="W2">
-        <v>-31.958436594710584</v>
+        <v>-31.958436685976039</v>
       </c>
       <c r="X2">
-        <v>11.628839422027685</v>
+        <v>11.628839354537101</v>
       </c>
       <c r="AA2">
-        <v>51.365705297239742</v>
+        <v>51.365705192391808</v>
       </c>
       <c r="AB2">
-        <v>44.36696333218044</v>
+        <v>44.366963147834795</v>
       </c>
       <c r="AC2">
-        <v>9.5126688759342155</v>
+        <v>9.5126688805993744</v>
       </c>
       <c r="AD2">
-        <v>76.588481236537362</v>
+        <v>76.58848100617665</v>
       </c>
       <c r="AE2">
-        <v>30.90878359635721</v>
+        <v>30.908783588766596</v>
       </c>
       <c r="AF2">
-        <v>40.641701584228493</v>
+        <v>40.641701567059215</v>
       </c>
       <c r="AG2">
-        <v>49.328972616766286</v>
+        <v>49.328972497843594</v>
       </c>
       <c r="AH2">
-        <v>49.403017191528434</v>
+        <v>49.403017042604787</v>
       </c>
       <c r="AI2">
-        <v>40.706547758300829</v>
+        <v>40.706547572002464</v>
       </c>
       <c r="AJ2">
-        <v>33.386405303322597</v>
+        <v>33.386405256536058</v>
       </c>
       <c r="AK2">
-        <v>34.297526630259505</v>
+        <v>34.29752653984626</v>
       </c>
       <c r="AL2">
-        <v>2.1769142261231034</v>
+        <v>2.1769141395962524</v>
       </c>
       <c r="AM2">
-        <v>48.203734860129188</v>
+        <v>48.2037346637563</v>
       </c>
       <c r="AN2">
-        <v>41.835309432409744</v>
+        <v>41.835309310197886</v>
       </c>
       <c r="AO2">
-        <v>66.786185576620966</v>
+        <v>66.786185420638475</v>
       </c>
       <c r="AQ2">
-        <v>6.9765103443209462</v>
+        <v>6.9765101758157577</v>
       </c>
       <c r="AR2">
-        <v>59.72546422175612</v>
+        <v>59.725464268345455</v>
       </c>
       <c r="AS2">
-        <v>58.46381391823725</v>
+        <v>58.46381373427166</v>
       </c>
       <c r="AU2">
-        <v>48.297317073829618</v>
+        <v>48.297316972054041</v>
       </c>
       <c r="AV2">
-        <v>26.390085846050532</v>
+        <v>26.390085526973621</v>
       </c>
       <c r="AW2">
-        <v>24.212717162476462</v>
+        <v>24.212717015113075</v>
       </c>
       <c r="AX2">
-        <v>57.190817860814477</v>
+        <v>57.190817774619795</v>
       </c>
       <c r="AY2">
-        <v>73.880359208665467</v>
+        <v>73.880359047595363</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.833278809096566</v>
+        <v>20.83327871360159</v>
       </c>
       <c r="C3">
-        <v>25.004754037366762</v>
+        <v>25.004753925627604</v>
       </c>
       <c r="E3">
-        <v>52.082787428311292</v>
+        <v>52.082787376098871</v>
       </c>
       <c r="F3">
-        <v>23.103110826664743</v>
+        <v>23.103110740133197</v>
       </c>
       <c r="G3">
-        <v>41.373463030326832</v>
+        <v>41.37346296406497</v>
       </c>
       <c r="H3">
-        <v>4.745789327737322</v>
+        <v>4.7457892990590045</v>
       </c>
       <c r="J3">
-        <v>48.253519827136962</v>
+        <v>48.253519666546154</v>
       </c>
       <c r="K3">
-        <v>112.72808890142529</v>
+        <v>112.72808881781043</v>
       </c>
       <c r="L3">
-        <v>44.480474203261124</v>
+        <v>44.480474099356989</v>
       </c>
       <c r="M3">
-        <v>9.371848072809275</v>
+        <v>9.3714737615956452</v>
       </c>
       <c r="N3">
-        <v>31.199615617849695</v>
+        <v>31.199615536577745</v>
       </c>
       <c r="P3">
-        <v>47.999233904884129</v>
+        <v>47.999233730648719</v>
       </c>
       <c r="Q3">
-        <v>26.211585445793251</v>
+        <v>26.211585357715826</v>
       </c>
       <c r="R3">
-        <v>4.0621570332261765</v>
+        <v>4.0621568495590061</v>
       </c>
       <c r="W3">
-        <v>5.4491247478680993</v>
+        <v>5.4491245476355008</v>
       </c>
       <c r="AA3">
-        <v>57.004161456665372</v>
+        <v>57.004161318801749</v>
       </c>
       <c r="AB3">
-        <v>52.946655406479081</v>
+        <v>52.946655280214031</v>
       </c>
       <c r="AC3">
-        <v>52.309120441679426</v>
+        <v>52.309120415982605</v>
       </c>
       <c r="AD3">
-        <v>65.082690859532747</v>
+        <v>65.082690784729593</v>
       </c>
       <c r="AE3">
-        <v>56.038494519268689</v>
+        <v>56.038494484096312</v>
       </c>
       <c r="AF3">
-        <v>38.25229846679639</v>
+        <v>38.252298388283712</v>
       </c>
       <c r="AG3">
-        <v>28.277283825474047</v>
+        <v>28.27728367926149</v>
       </c>
       <c r="AH3">
-        <v>23.001921437306493</v>
+        <v>23.001921292339485</v>
       </c>
       <c r="AI3">
-        <v>109.05563426428114</v>
+        <v>109.0556342503247</v>
       </c>
       <c r="AJ3">
-        <v>56.442667833474957</v>
+        <v>56.442667719653294</v>
       </c>
       <c r="AK3">
-        <v>44.117562024749866</v>
+        <v>44.117561947579418</v>
       </c>
       <c r="AL3">
-        <v>36.388273936777523</v>
+        <v>36.38827376960441</v>
       </c>
       <c r="AM3">
-        <v>44.31642199470717</v>
+        <v>44.316421733404319</v>
       </c>
       <c r="AN3">
-        <v>-23.489126116415683</v>
+        <v>-23.489126227123826</v>
       </c>
       <c r="AO3">
-        <v>59.76970780860956</v>
+        <v>59.769707745848002</v>
       </c>
       <c r="AP3">
-        <v>23.402320661289231</v>
+        <v>23.402320547884067</v>
       </c>
       <c r="AQ3">
-        <v>36.33210574109367</v>
+        <v>36.332105622141739</v>
       </c>
       <c r="AS3">
-        <v>41.621449588502571</v>
+        <v>41.621449562456917</v>
       </c>
       <c r="AT3">
-        <v>60.072103795837116</v>
+        <v>60.072103650031714</v>
       </c>
       <c r="AU3">
-        <v>31.572836213763029</v>
+        <v>31.572836179939834</v>
       </c>
       <c r="AV3">
-        <v>26.220073799688876</v>
+        <v>26.220073676582672</v>
       </c>
       <c r="AW3">
-        <v>23.000047685273483</v>
+        <v>23.000047576715872</v>
       </c>
       <c r="AX3">
-        <v>27.272003072813831</v>
+        <v>27.272002960388647</v>
       </c>
       <c r="AY3">
-        <v>82.767231585492709</v>
+        <v>82.767231441016023</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>16.674413772305034</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>27.655246727319621</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>37.346183770040149</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>65.078115381936215</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>30.378254280837737</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.649437369458168</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>33.347008367896734</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>30.764709280323466</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>35.280304279690164</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.445550223517863</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.4245037860321847</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>32.957760361604244</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>39.180398660125491</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>42.229118955864109</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.6466952613730061</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>54.05109979538544</v>
+        <v>32.275851148617548</v>
       </c>
       <c r="V2">
         <v>24.142849591104572</v>
@@ -570,52 +465,55 @@
         <v>11.628839354537101</v>
       </c>
       <c r="AA2">
-        <v>51.365705192391808</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>44.366963147834795</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>9.5126688805993744</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>76.58848100617665</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>30.908783588766596</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>40.641701567059215</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>49.328972497843594</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>49.403017042604787</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>40.706547572002464</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>33.386405256536058</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>34.29752653984626</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.1769141395962524</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>48.2037346637563</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>41.835309310197886</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>66.786185420638475</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.9765101758157577</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>59.725464268345455</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>20.83327871360159</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>25.004753925627604</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>52.082787376098871</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>23.103110740133197</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>41.37346296406497</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.7457892990590045</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>48.253519666546154</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>112.72808881781043</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>44.480474099356989</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.3714737615956452</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>31.199615536577745</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>47.999233730648719</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>26.211585357715826</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.0621568495590061</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>5.4491245476355008</v>
       </c>
       <c r="AA3">
-        <v>57.004161318801749</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>52.946655280214031</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>52.309120415982605</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>65.082690784729593</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>56.038494484096312</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>38.252298388283712</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>28.27728367926149</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>23.001921292339485</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>109.0556342503247</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>56.442667719653294</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>44.117561947579418</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>36.38827376960441</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>44.316421733404319</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-23.489126227123826</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>59.769707745848002</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>23.402320547884067</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>36.332105622141739</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>41.621449562456917</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.7336465680074635</v>
-      </c>
-      <c r="C2">
-        <v>19.235635009545401</v>
+        <v>39.219110102977254</v>
       </c>
       <c r="D2">
-        <v>48.562687884918581</v>
+        <v>44.6426690482119</v>
       </c>
       <c r="E2">
-        <v>25.220202634694918</v>
+        <v>31.440817386465948</v>
       </c>
       <c r="F2">
         <v>26.913846683393373</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>23.86126461829965</v>
-      </c>
       <c r="C3">
-        <v>34.688543978515064</v>
+        <v>43.371083251381563</v>
+      </c>
+      <c r="D3">
+        <v>43.378781294180513</v>
       </c>
       <c r="E3">
-        <v>77.455075933978961</v>
+        <v>16.437929676500836</v>
       </c>
       <c r="F3">
         <v>23.33913666240371</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.7336465680074635</v>
+        <v>11.73003337338305</v>
       </c>
       <c r="C2">
-        <v>19.235635009545401</v>
+        <v>39.219110102977254</v>
       </c>
       <c r="D2">
-        <v>48.562687884918581</v>
+        <v>51.827360856362169</v>
       </c>
       <c r="E2">
-        <v>25.220202634694918</v>
+        <v>44.6426690482119</v>
       </c>
       <c r="F2">
         <v>26.913846683393373</v>
@@ -646,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23.86126461829965</v>
-      </c>
-      <c r="C3">
-        <v>34.688543978515064</v>
+        <v>29.667566400003114</v>
+      </c>
+      <c r="D3">
+        <v>65.142064585136268</v>
       </c>
       <c r="E3">
-        <v>85.797693197402978</v>
+        <v>43.378781294180513</v>
       </c>
       <c r="F3">
         <v>23.33913666240371</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_msc_GM_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,127 +513,127 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>8.7336464476305995</v>
+      </c>
+      <c r="C2">
+        <v>19.23563490958486</v>
+      </c>
+      <c r="D2">
+        <v>48.562687528727047</v>
+      </c>
+      <c r="E2">
+        <v>25.220202531268288</v>
+      </c>
+      <c r="F2">
+        <v>26.913846598798902</v>
+      </c>
+      <c r="G2">
+        <v>30.525784323333159</v>
+      </c>
+      <c r="H2">
+        <v>14.425007488989596</v>
+      </c>
+      <c r="I2">
+        <v>12.102436766171486</v>
+      </c>
+      <c r="J2">
+        <v>26.876909600577047</v>
+      </c>
+      <c r="K2">
+        <v>13.694031145713662</v>
+      </c>
+      <c r="L2">
+        <v>19.25570675547155</v>
+      </c>
+      <c r="N2">
         <v>11.73003337338305</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>39.219110102977254</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>9.9548164886327974</v>
+      </c>
+      <c r="Q2">
+        <v>18.348032287067777</v>
+      </c>
+      <c r="V2">
+        <v>33.310194884227371</v>
+      </c>
+      <c r="W2">
+        <v>33.714375188809697</v>
+      </c>
+      <c r="X2">
+        <v>20.66055577121524</v>
+      </c>
+      <c r="AA2">
+        <v>49.998330840049668</v>
+      </c>
+      <c r="AB2">
+        <v>79.033965150136581</v>
+      </c>
+      <c r="AC2">
+        <v>34.213550641962456</v>
+      </c>
+      <c r="AD2">
+        <v>65.912227332757027</v>
+      </c>
+      <c r="AE2">
+        <v>29.383627944081926</v>
+      </c>
+      <c r="AF2">
+        <v>40.57913445909071</v>
+      </c>
+      <c r="AG2">
+        <v>41.154523303886819</v>
+      </c>
+      <c r="AH2">
+        <v>46.2357814138565</v>
+      </c>
+      <c r="AI2">
+        <v>68.733375281494574</v>
+      </c>
+      <c r="AJ2">
+        <v>29.533889988845118</v>
+      </c>
+      <c r="AK2">
+        <v>28.425507446869215</v>
+      </c>
+      <c r="AL2">
+        <v>22.830334488908917</v>
+      </c>
+      <c r="AM2">
         <v>51.827360856362169</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>44.6426690482119</v>
       </c>
-      <c r="F2">
-        <v>26.913846683393373</v>
-      </c>
-      <c r="G2">
-        <v>30.525784296982383</v>
-      </c>
-      <c r="H2">
-        <v>14.425007664181294</v>
-      </c>
-      <c r="I2">
-        <v>12.102436619177672</v>
-      </c>
-      <c r="J2">
-        <v>26.876909868199839</v>
-      </c>
-      <c r="K2">
-        <v>13.694031033503098</v>
-      </c>
-      <c r="L2">
-        <v>19.255706937199037</v>
-      </c>
-      <c r="N2">
-        <v>11.73003344066483</v>
-      </c>
-      <c r="O2">
-        <v>39.219110433136649</v>
-      </c>
-      <c r="P2">
-        <v>9.9548165108496143</v>
-      </c>
-      <c r="Q2">
-        <v>18.348032637212608</v>
-      </c>
-      <c r="V2">
-        <v>33.310195388190756</v>
-      </c>
-      <c r="W2">
-        <v>33.714375407244667</v>
-      </c>
-      <c r="X2">
-        <v>20.660556025738018</v>
-      </c>
-      <c r="AA2">
-        <v>49.998331249143249</v>
-      </c>
-      <c r="AB2">
-        <v>79.033965848758868</v>
-      </c>
-      <c r="AC2">
-        <v>34.213550624957435</v>
-      </c>
-      <c r="AD2">
-        <v>65.912228122653687</v>
-      </c>
-      <c r="AE2">
-        <v>29.38362796886052</v>
-      </c>
-      <c r="AF2">
-        <v>40.579134518387086</v>
-      </c>
-      <c r="AG2">
-        <v>41.154523670659493</v>
-      </c>
-      <c r="AH2">
-        <v>46.235781895479398</v>
-      </c>
-      <c r="AI2">
-        <v>68.733376052836462</v>
-      </c>
-      <c r="AJ2">
-        <v>29.53389012946619</v>
-      </c>
-      <c r="AK2">
-        <v>28.425507766868936</v>
-      </c>
-      <c r="AL2">
-        <v>22.830334818896102</v>
-      </c>
-      <c r="AM2">
-        <v>51.8273614627212</v>
-      </c>
-      <c r="AN2">
-        <v>44.642669495785192</v>
-      </c>
       <c r="AO2">
-        <v>49.561869220292692</v>
+        <v>49.561868605675627</v>
       </c>
       <c r="AQ2">
-        <v>31.44081790543779</v>
+        <v>31.440817386465948</v>
       </c>
       <c r="AR2">
-        <v>21.729257121370328</v>
+        <v>21.729257309793841</v>
       </c>
       <c r="AS2">
-        <v>40.209153130008538</v>
+        <v>40.209152513046327</v>
       </c>
       <c r="AU2">
-        <v>18.500737289337312</v>
+        <v>18.5007368777568</v>
       </c>
       <c r="AV2">
-        <v>60.822744742368059</v>
+        <v>60.822744009280768</v>
       </c>
       <c r="AW2">
-        <v>52.001203791088521</v>
+        <v>52.001203283128518</v>
       </c>
       <c r="AX2">
-        <v>56.466282020658689</v>
+        <v>56.466281694418129</v>
       </c>
       <c r="AY2">
-        <v>55.543472624579515</v>
+        <v>55.54347203490623</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -641,121 +641,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23.861264303067419</v>
+      </c>
+      <c r="C3">
+        <v>34.688543608494285</v>
+      </c>
+      <c r="E3">
+        <v>85.797692731027226</v>
+      </c>
+      <c r="F3">
+        <v>23.339136404389876</v>
+      </c>
+      <c r="G3">
+        <v>31.427459932969214</v>
+      </c>
+      <c r="H3">
+        <v>25.245119677543027</v>
+      </c>
+      <c r="J3">
+        <v>45.199586047525628</v>
+      </c>
+      <c r="K3">
+        <v>29.309286738178962</v>
+      </c>
+      <c r="L3">
+        <v>28.510536306889524</v>
+      </c>
+      <c r="M3">
+        <v>26.177416502817337</v>
+      </c>
+      <c r="N3">
         <v>29.667566400003114</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>58.058236592072099</v>
+      </c>
+      <c r="Q3">
+        <v>15.415529832984879</v>
+      </c>
+      <c r="R3">
+        <v>43.371083251381563</v>
+      </c>
+      <c r="W3">
+        <v>34.509478475036154</v>
+      </c>
+      <c r="AA3">
+        <v>58.103711750584154</v>
+      </c>
+      <c r="AB3">
+        <v>53.305856878542777</v>
+      </c>
+      <c r="AC3">
+        <v>33.311948534884692</v>
+      </c>
+      <c r="AD3">
+        <v>54.188769042957887</v>
+      </c>
+      <c r="AE3">
+        <v>40.639780967436003</v>
+      </c>
+      <c r="AF3">
+        <v>56.81324266029155</v>
+      </c>
+      <c r="AG3">
+        <v>30.237655535903585</v>
+      </c>
+      <c r="AH3">
+        <v>33.282274374284697</v>
+      </c>
+      <c r="AI3">
+        <v>46.904665939852727</v>
+      </c>
+      <c r="AJ3">
+        <v>51.735915771029426</v>
+      </c>
+      <c r="AK3">
+        <v>37.197750865107693</v>
+      </c>
+      <c r="AL3">
+        <v>44.301357251968554</v>
+      </c>
+      <c r="AM3">
         <v>65.142064585136268</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>43.378781294180513</v>
       </c>
-      <c r="F3">
-        <v>23.33913666240371</v>
-      </c>
-      <c r="G3">
-        <v>31.427460163961335</v>
-      </c>
-      <c r="H3">
-        <v>25.245119778814846</v>
-      </c>
-      <c r="J3">
-        <v>45.199586676421291</v>
-      </c>
-      <c r="K3">
-        <v>29.30928698071147</v>
-      </c>
-      <c r="L3">
-        <v>28.510536700113608</v>
-      </c>
-      <c r="M3">
-        <v>26.178340923603159</v>
-      </c>
-      <c r="N3">
-        <v>29.667566678656659</v>
-      </c>
-      <c r="P3">
-        <v>58.058237242626618</v>
-      </c>
-      <c r="Q3">
-        <v>15.415530088425111</v>
-      </c>
-      <c r="R3">
-        <v>43.371083868563169</v>
-      </c>
-      <c r="W3">
-        <v>34.509479009202551</v>
-      </c>
-      <c r="AA3">
-        <v>58.103712225447858</v>
-      </c>
-      <c r="AB3">
-        <v>53.305857298171318</v>
-      </c>
-      <c r="AC3">
-        <v>33.311948658998325</v>
-      </c>
-      <c r="AD3">
-        <v>54.188769354740515</v>
-      </c>
-      <c r="AE3">
-        <v>40.639781081415691</v>
-      </c>
-      <c r="AF3">
-        <v>56.813242977920616</v>
-      </c>
-      <c r="AG3">
-        <v>30.23765597077135</v>
-      </c>
-      <c r="AH3">
-        <v>33.282274844719581</v>
-      </c>
-      <c r="AI3">
-        <v>46.904666610638721</v>
-      </c>
-      <c r="AJ3">
-        <v>51.735916204012554</v>
-      </c>
-      <c r="AK3">
-        <v>37.197751176814201</v>
-      </c>
-      <c r="AL3">
-        <v>44.30135782506752</v>
-      </c>
-      <c r="AM3">
-        <v>65.142065328374727</v>
-      </c>
-      <c r="AN3">
-        <v>43.378781677110474</v>
-      </c>
       <c r="AO3">
-        <v>83.465465012258747</v>
+        <v>83.465464763873186</v>
       </c>
       <c r="AP3">
-        <v>46.286865502060174</v>
+        <v>46.286865140309288</v>
       </c>
       <c r="AQ3">
-        <v>16.437929825256905</v>
+        <v>16.437929676500836</v>
       </c>
       <c r="AS3">
-        <v>37.324440340500672</v>
+        <v>37.324440244254134</v>
       </c>
       <c r="AT3">
-        <v>58.030491606249079</v>
+        <v>58.030491118156256</v>
       </c>
       <c r="AU3">
-        <v>24.43679672656603</v>
+        <v>24.436796589634547</v>
       </c>
       <c r="AV3">
-        <v>44.881901737237939</v>
+        <v>44.881901392457927</v>
       </c>
       <c r="AW3">
-        <v>45.76105447957638</v>
+        <v>45.761054085654649</v>
       </c>
       <c r="AX3">
-        <v>30.646171535499551</v>
+        <v>30.646171093994528</v>
       </c>
       <c r="AY3">
-        <v>63.816064556292353</v>
+        <v>63.816064026891503</v>
       </c>
     </row>
   </sheetData>
